--- a/database/industries/zeraat/zegoldasht/balancesheet/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1D3B6-63A9-4991-B4BD-DC2FEC2ABD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F05066-4037-4BC4-A45D-A0964E147AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -708,14 +708,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,7 +724,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -746,7 +746,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -755,7 +755,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -786,7 +786,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -828,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -837,7 +837,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -869,7 +869,7 @@
         <v>213034</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -911,7 +911,7 @@
         <v>343758</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -932,7 +932,7 @@
         <v>789313</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -953,7 +953,7 @@
         <v>105952</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -995,7 +995,7 @@
         <v>62740</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>1514797</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>3404994</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>41156</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>1173877</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>34</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>4631494</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>35</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>6146291</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>36</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>4061988</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>7110</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>443181</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>243971</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>45</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>4756250</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>80002</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>50</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>80002</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>51</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>4836252</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>52</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>-7330</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>47581</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>63</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>569788</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>65</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>1310039</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>66</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>6146291</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>

--- a/database/industries/zeraat/zegoldasht/balancesheet/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F05066-4037-4BC4-A45D-A0964E147AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7114F9E0-EA4C-47FA-8703-F016DE3FDDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-13 (16)</t>
-  </si>
-  <si>
     <t>1399-02-22 (12)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-26 (9)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-29 (8)</t>
+  </si>
+  <si>
+    <t>1402-02-29</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -708,14 +708,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,7 +724,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -746,7 +746,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -755,7 +755,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -786,7 +786,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -828,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -837,7 +837,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -848,28 +848,28 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1192</v>
+        <v>15722</v>
       </c>
       <c r="E12" s="15">
-        <v>15722</v>
+        <v>101177</v>
       </c>
       <c r="F12" s="15">
-        <v>101177</v>
+        <v>117028</v>
       </c>
       <c r="G12" s="15">
-        <v>117028</v>
+        <v>213034</v>
       </c>
       <c r="H12" s="15">
-        <v>213034</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>189242</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -890,70 +890,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>103680</v>
+        <v>137024</v>
       </c>
       <c r="E14" s="15">
-        <v>137024</v>
+        <v>132674</v>
       </c>
       <c r="F14" s="15">
-        <v>132674</v>
+        <v>223042</v>
       </c>
       <c r="G14" s="15">
-        <v>223042</v>
+        <v>343758</v>
       </c>
       <c r="H14" s="15">
-        <v>343758</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>449362</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>124253</v>
+        <v>145084</v>
       </c>
       <c r="E15" s="11">
-        <v>145084</v>
+        <v>267243</v>
       </c>
       <c r="F15" s="11">
-        <v>267243</v>
+        <v>464663</v>
       </c>
       <c r="G15" s="11">
-        <v>464663</v>
+        <v>789313</v>
       </c>
       <c r="H15" s="11">
-        <v>789313</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1073451</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>2248</v>
+        <v>21897</v>
       </c>
       <c r="E16" s="15">
-        <v>21897</v>
+        <v>36870</v>
       </c>
       <c r="F16" s="15">
-        <v>36870</v>
+        <v>50495</v>
       </c>
       <c r="G16" s="15">
-        <v>50495</v>
+        <v>105952</v>
       </c>
       <c r="H16" s="15">
-        <v>105952</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>28254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -985,80 +985,80 @@
       <c r="E18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>24</v>
+      <c r="F18" s="15">
+        <v>65034</v>
       </c>
       <c r="G18" s="15">
-        <v>65034</v>
+        <v>62740</v>
       </c>
       <c r="H18" s="15">
-        <v>62740</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>62945</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17">
-        <v>231373</v>
+        <v>319727</v>
       </c>
       <c r="E19" s="17">
-        <v>319727</v>
+        <v>537964</v>
       </c>
       <c r="F19" s="17">
-        <v>537964</v>
+        <v>920262</v>
       </c>
       <c r="G19" s="17">
-        <v>920262</v>
+        <v>1514797</v>
       </c>
       <c r="H19" s="17">
-        <v>1514797</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1803254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>1634</v>
+        <v>515</v>
       </c>
       <c r="E20" s="15">
-        <v>515</v>
+        <v>760</v>
       </c>
       <c r="F20" s="15">
-        <v>760</v>
+        <v>508</v>
       </c>
       <c r="G20" s="15">
-        <v>508</v>
+        <v>1155</v>
       </c>
       <c r="H20" s="15">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>7429</v>
+        <v>9660</v>
       </c>
       <c r="E21" s="11">
         <v>9660</v>
       </c>
       <c r="F21" s="11">
-        <v>9660</v>
+        <v>59660</v>
       </c>
       <c r="G21" s="11">
-        <v>59660</v>
+        <v>10312</v>
       </c>
       <c r="H21" s="11">
-        <v>10312</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17360</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1079,49 +1079,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>427719</v>
+        <v>475001</v>
       </c>
       <c r="E23" s="11">
-        <v>475001</v>
+        <v>1049550</v>
       </c>
       <c r="F23" s="11">
-        <v>1049550</v>
+        <v>1839861</v>
       </c>
       <c r="G23" s="11">
-        <v>1839861</v>
+        <v>3404994</v>
       </c>
       <c r="H23" s="11">
-        <v>3404994</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4310475</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>2798</v>
+        <v>2868</v>
       </c>
       <c r="E24" s="15">
-        <v>2868</v>
+        <v>3446</v>
       </c>
       <c r="F24" s="15">
-        <v>3446</v>
+        <v>22995</v>
       </c>
       <c r="G24" s="15">
-        <v>22995</v>
+        <v>41156</v>
       </c>
       <c r="H24" s="15">
-        <v>41156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>38383</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1174,59 +1174,59 @@
       <c r="E27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>24</v>
+      <c r="F27" s="11">
+        <v>637117</v>
       </c>
       <c r="G27" s="11">
-        <v>637117</v>
+        <v>1173877</v>
       </c>
       <c r="H27" s="11">
-        <v>1173877</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2803035</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19">
-        <v>439580</v>
+        <v>488044</v>
       </c>
       <c r="E28" s="19">
-        <v>488044</v>
+        <v>1063416</v>
       </c>
       <c r="F28" s="19">
-        <v>1063416</v>
+        <v>2560141</v>
       </c>
       <c r="G28" s="19">
-        <v>2560141</v>
+        <v>4631494</v>
       </c>
       <c r="H28" s="19">
-        <v>4631494</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7169650</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17">
-        <v>670953</v>
+        <v>807771</v>
       </c>
       <c r="E29" s="17">
-        <v>807771</v>
+        <v>1601380</v>
       </c>
       <c r="F29" s="17">
-        <v>1601380</v>
+        <v>3480403</v>
       </c>
       <c r="G29" s="17">
-        <v>3480403</v>
+        <v>6146291</v>
       </c>
       <c r="H29" s="17">
-        <v>6146291</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8972904</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>36</v>
       </c>
@@ -1237,28 +1237,28 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>136784</v>
+        <v>138654</v>
       </c>
       <c r="E31" s="15">
-        <v>138654</v>
+        <v>604602</v>
       </c>
       <c r="F31" s="15">
-        <v>604602</v>
+        <v>2087508</v>
       </c>
       <c r="G31" s="15">
-        <v>2087508</v>
+        <v>4061988</v>
       </c>
       <c r="H31" s="15">
-        <v>4061988</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5770122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1279,91 +1279,91 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>0</v>
+        <v>4171</v>
       </c>
       <c r="E33" s="15">
-        <v>4171</v>
+        <v>2420</v>
       </c>
       <c r="F33" s="15">
-        <v>2420</v>
+        <v>5381</v>
       </c>
       <c r="G33" s="15">
-        <v>5381</v>
+        <v>7110</v>
       </c>
       <c r="H33" s="15">
-        <v>7110</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>194980</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="E34" s="11">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="F34" s="11">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="G34" s="11">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>97774</v>
+        <v>105144</v>
       </c>
       <c r="E35" s="15">
-        <v>105144</v>
+        <v>324760</v>
       </c>
       <c r="F35" s="15">
-        <v>324760</v>
+        <v>621526</v>
       </c>
       <c r="G35" s="15">
-        <v>621526</v>
+        <v>443181</v>
       </c>
       <c r="H35" s="15">
-        <v>443181</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>793712</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
-        <v>44246</v>
+        <v>2687</v>
       </c>
       <c r="E36" s="11">
-        <v>2687</v>
+        <v>0</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
       </c>
       <c r="G36" s="11">
-        <v>0</v>
+        <v>243971</v>
       </c>
       <c r="H36" s="11">
-        <v>243971</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>617092</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1405,28 +1405,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19">
-        <v>278869</v>
+        <v>250777</v>
       </c>
       <c r="E39" s="19">
-        <v>250777</v>
+        <v>931998</v>
       </c>
       <c r="F39" s="19">
-        <v>931998</v>
+        <v>2714732</v>
       </c>
       <c r="G39" s="19">
-        <v>2714732</v>
+        <v>4756250</v>
       </c>
       <c r="H39" s="19">
-        <v>4756250</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7376552</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1447,13 +1447,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
-        <v>0</v>
+      <c r="D41" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>24</v>
@@ -1468,13 +1468,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
-        <v>16334</v>
+        <v>0</v>
       </c>
       <c r="E42" s="11">
         <v>0</v>
@@ -1489,70 +1489,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
-        <v>14228</v>
+        <v>17781</v>
       </c>
       <c r="E43" s="15">
-        <v>17781</v>
+        <v>27083</v>
       </c>
       <c r="F43" s="15">
-        <v>27083</v>
+        <v>49921</v>
       </c>
       <c r="G43" s="15">
-        <v>49921</v>
+        <v>80002</v>
       </c>
       <c r="H43" s="15">
-        <v>80002</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>130027</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17">
-        <v>30562</v>
+        <v>17781</v>
       </c>
       <c r="E44" s="17">
-        <v>17781</v>
+        <v>27083</v>
       </c>
       <c r="F44" s="17">
-        <v>27083</v>
+        <v>49921</v>
       </c>
       <c r="G44" s="17">
-        <v>49921</v>
+        <v>80002</v>
       </c>
       <c r="H44" s="17">
-        <v>80002</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>130027</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19">
-        <v>309431</v>
+        <v>268558</v>
       </c>
       <c r="E45" s="19">
-        <v>268558</v>
+        <v>959081</v>
       </c>
       <c r="F45" s="19">
-        <v>959081</v>
+        <v>2764653</v>
       </c>
       <c r="G45" s="19">
-        <v>2764653</v>
+        <v>4836252</v>
       </c>
       <c r="H45" s="19">
-        <v>4836252</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7506579</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>52</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,13 +1578,13 @@
         <v>200000</v>
       </c>
       <c r="G47" s="15">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="H47" s="15">
         <v>700000</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1617,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="15">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="H49" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="G50" s="11">
-        <v>0</v>
+        <v>-7330</v>
       </c>
       <c r="H50" s="11">
         <v>-7330</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="15" t="s">
-        <v>24</v>
+      <c r="D51" s="15">
+        <v>0</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
-        <v>18737</v>
+        <v>20000</v>
       </c>
       <c r="E52" s="11">
         <v>20000</v>
@@ -1683,25 +1683,25 @@
         <v>20000</v>
       </c>
       <c r="G52" s="11">
-        <v>20000</v>
+        <v>47581</v>
       </c>
       <c r="H52" s="11">
-        <v>47581</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="E53" s="15">
         <v>40000</v>
       </c>
       <c r="F53" s="15">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="G53" s="15">
         <v>0</v>
@@ -1710,13 +1710,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>0</v>
+      <c r="D54" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>24</v>
@@ -1731,7 +1731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11">
-        <v>0</v>
+      <c r="D56" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>24</v>
@@ -1773,7 +1773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>63</v>
       </c>
@@ -1794,70 +1794,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11">
-        <v>142785</v>
+        <v>279213</v>
       </c>
       <c r="E58" s="11">
-        <v>279213</v>
+        <v>382299</v>
       </c>
       <c r="F58" s="11">
-        <v>382299</v>
+        <v>455750</v>
       </c>
       <c r="G58" s="11">
-        <v>455750</v>
+        <v>569788</v>
       </c>
       <c r="H58" s="11">
-        <v>569788</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>703655</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19">
-        <v>361522</v>
+        <v>539213</v>
       </c>
       <c r="E59" s="19">
-        <v>539213</v>
+        <v>642299</v>
       </c>
       <c r="F59" s="19">
-        <v>642299</v>
+        <v>715750</v>
       </c>
       <c r="G59" s="19">
-        <v>715750</v>
+        <v>1310039</v>
       </c>
       <c r="H59" s="19">
-        <v>1310039</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1466325</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17">
-        <v>670953</v>
+        <v>807771</v>
       </c>
       <c r="E60" s="17">
-        <v>807771</v>
+        <v>1601380</v>
       </c>
       <c r="F60" s="17">
-        <v>1601380</v>
+        <v>3480403</v>
       </c>
       <c r="G60" s="17">
-        <v>3480403</v>
+        <v>6146291</v>
       </c>
       <c r="H60" s="17">
-        <v>6146291</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8972904</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
